--- a/indicadores/tablas/430101.xlsx
+++ b/indicadores/tablas/430101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Otros</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">Más de un prestador</t>
   </si>
   <si>
     <t xml:space="preserve">Sin derechos</t>
@@ -93,12 +93,6 @@
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disponibilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -121,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de personas según tipo de institución prestadora de salud en la que tienen derechos vigentes / Cantidad de habitantes)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
   </si>
 </sst>
 </file>
@@ -912,6 +918,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/430101.xlsx
+++ b/indicadores/tablas/430101.xlsx
@@ -456,7 +456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -860,7 +860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/430101.xlsx
+++ b/indicadores/tablas/430101.xlsx
@@ -102,13 +102,13 @@
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente</t>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente.</t>
+    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -456,7 +456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -860,7 +860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/430101.xlsx
+++ b/indicadores/tablas/430101.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Más de un prestador</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin derechos</t>
+    <t xml:space="preserve">Sin cobertura</t>
   </si>
   <si>
     <t xml:space="preserve">2006</t>
@@ -102,13 +102,13 @@
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual declaran tener cobertura vigente</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
+    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual declaran tener cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>

--- a/indicadores/tablas/430101.xlsx
+++ b/indicadores/tablas/430101.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -39,100 +39,128 @@
     <t xml:space="preserve">Sin cobertura</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual declaran tener cobertura vigente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Cobertura integral de salud</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual declaran tener cobertura vigente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual declaran tener cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de personas según tipo de institución prestadora de salud en la que tienen derechos vigentes / Cantidad de habitantes)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
+A partir de 2020 cambia el modo de relevar cobertura de salud. Antes de esta fecha se les consultaba a los/as encuestados por cobertura en cada uno de los prestadores posibles. Durante el 2020 y el primer semestre de 2021, se relevó únicamente el principal prestador de salud. En el segundo semestre de 2021 se relevó el prestador principal y secundario, hecho que habilita reconstruir un indicador más próximo al calculado antes de 2019. 
+Para 2021, este indicador se calcula únicamente a partir de la implantación de modalidad panel del segundo semestre de 2021. Dados los cambios metodológicos en la formulación de las preguntas, no se incorpora a la serie el año 2020 y tampoco se considera la información del primer semestre de 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -451,12 +479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -489,25 +517,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>36.7</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>42.1</v>
+        <v>59.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="E2" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>0.053</v>
       </c>
       <c r="G2" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -515,25 +543,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>35.6</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>42.3</v>
+        <v>59.7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>0.022</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -541,25 +569,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>29.2</v>
+        <v>31.1</v>
       </c>
       <c r="C4" t="n">
-        <v>49.6</v>
+        <v>60.1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="E4" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.63</v>
+        <v>0.028</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -567,25 +595,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>30.2</v>
+        <v>31.4</v>
       </c>
       <c r="C5" t="n">
-        <v>52.5</v>
+        <v>57.6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>0.016</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -593,25 +621,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>31.9</v>
+        <v>30.1</v>
       </c>
       <c r="C6" t="n">
-        <v>52.1</v>
+        <v>57.1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="E6" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.61</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -619,25 +647,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="C7" t="n">
-        <v>54.8</v>
+        <v>57.9</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E7" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="G7" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +673,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>27.1</v>
+        <v>28.4</v>
       </c>
       <c r="C8" t="n">
-        <v>56.1</v>
+        <v>58.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="E8" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -671,25 +699,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
@@ -697,25 +725,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="C10" t="n">
-        <v>57.7</v>
+        <v>58.4</v>
       </c>
       <c r="D10" t="n">
         <v>2.1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11">
@@ -723,25 +751,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="C11" t="n">
-        <v>58.4</v>
+        <v>57.7</v>
       </c>
       <c r="D11" t="n">
         <v>2.1</v>
       </c>
       <c r="E11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="G11" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="12">
@@ -749,25 +777,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -775,25 +803,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4</v>
+        <v>27.1</v>
       </c>
       <c r="C13" t="n">
-        <v>58.4</v>
+        <v>56.1</v>
       </c>
       <c r="D13" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E13" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -801,25 +829,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="C14" t="n">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="D14" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>7.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -827,25 +855,129 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>30.1</v>
+        <v>31.9</v>
       </c>
       <c r="C15" t="n">
-        <v>57.1</v>
+        <v>52.1</v>
       </c>
       <c r="D15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D17" t="n">
         <v>2.3</v>
       </c>
-      <c r="E15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="E17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -855,75 +987,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
